--- a/Лаба 10/Проверка гипотез.xlsx
+++ b/Лаба 10/Проверка гипотез.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="24855" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="24855" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Свобода от распределения" sheetId="1" r:id="rId1"/>
     <sheet name="Тип гипотизы" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Тип оцениваемого параметра" sheetId="3" r:id="rId3"/>
+    <sheet name="Метод оценивания" sheetId="4" r:id="rId4"/>
+    <sheet name="Обобщённый нормальный" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="64">
   <si>
     <t>Колмогорова</t>
   </si>
@@ -103,6 +105,111 @@
   </si>
   <si>
     <t>Гамма(6.4721; 0.0580; 0.2620)</t>
+  </si>
+  <si>
+    <t>Нормальный закон оценивания параметра сдвига</t>
+  </si>
+  <si>
+    <t>Нормальный закон оценивания параметра масштаба</t>
+  </si>
+  <si>
+    <t>BIII(5.2604; 7.4327; 2.1872; 1.4774; 0.30)</t>
+  </si>
+  <si>
+    <t>BIII(4.8849; 5.2341; 3.6279; 2.3872; 0.303)</t>
+  </si>
+  <si>
+    <t>BIII(4.433; 3.6365; 13.920; 0.6632; 0.0084)</t>
+  </si>
+  <si>
+    <t>Sb(3.153; 0.9448; 2.5477; 0.0160)</t>
+  </si>
+  <si>
+    <t>BIII(4.1081; 5.0598; 16.9721; 7.9065; 0.09)</t>
+  </si>
+  <si>
+    <t>BIII(3.4638; 2.330; 35.7115; 12.603; 0.105)</t>
+  </si>
+  <si>
+    <t>BIII(8.3672; 23.3179; 2.4614; 2.000; 0.230)</t>
+  </si>
+  <si>
+    <t>BIII(7.1085; 4.6558; 18.160; 0.400; 0.0055)</t>
+  </si>
+  <si>
+    <t>BIII(5.9430; 4.9562; 11.832; 2.600; 0.065)</t>
+  </si>
+  <si>
+    <t>Параметр формы = 0.5</t>
+  </si>
+  <si>
+    <t>Параметр формы = 1</t>
+  </si>
+  <si>
+    <t>Параметр формы = 1.6</t>
+  </si>
+  <si>
+    <t>Параметр формы = 2</t>
+  </si>
+  <si>
+    <t>Параметр формы = 4</t>
+  </si>
+  <si>
+    <t>Параметр формы = 7</t>
+  </si>
+  <si>
+    <t>BIII(3.0778; 1.6214; 30.1798; 1.2; 0.013)</t>
+  </si>
+  <si>
+    <t>BIII(4.5039; 2.0396; 37.0448; 8.000; 0.092)</t>
+  </si>
+  <si>
+    <t>BIII(5.2856; 3.0510; 34.1638; 0.7312; 0.0079)</t>
+  </si>
+  <si>
+    <t>BIII(5.2973; 3.3781; 27.5085; 4.8145; 0.073)</t>
+  </si>
+  <si>
+    <t>BIII(6.8750; 4.6392; 18.020; 0.3937; 0.006)</t>
+  </si>
+  <si>
+    <t>BIII(5.08840; 5.2459; 10.6760; 2.4738; 0.068)</t>
+  </si>
+  <si>
+    <t>BIII(9.3597; 5.7532; 5.8275; 1.4507; 0.2500)</t>
+  </si>
+  <si>
+    <t>BIII(6.7594; 3.8575; 28.6668; 0.5921; 0.006)</t>
+  </si>
+  <si>
+    <t>BIII(4.3857; 5.7110; 17.3440; 5.0052; 0.075)</t>
+  </si>
+  <si>
+    <t>BIII(3.5304; 2.1937; 29.8592; 1.000; 0.01)</t>
+  </si>
+  <si>
+    <t>BIII(4.1564; 2.7774; 30.5627; 6.0165; 0.0822)</t>
+  </si>
+  <si>
+    <t>BIII(3.5462; 6.6218; 2.2864; 2.2850; 0.325)</t>
+  </si>
+  <si>
+    <t>BIII(4.3835; 1.5744; 28.6719; 0.715; 0.009)</t>
+  </si>
+  <si>
+    <t>BIII(4.5480; 2.1191; 28.5121; 5.000; 0.0785)</t>
+  </si>
+  <si>
+    <t>Гамма(4.8498; 0.0661; 0.2787)</t>
+  </si>
+  <si>
+    <t>BIII(3.3514; 6.3914; 4.4205; 5.6318; 0.3193)</t>
+  </si>
+  <si>
+    <t>BIII(7.4966; 7.2832; 3.2253; 1.3047; 0.2336)</t>
+  </si>
+  <si>
+    <t>Гамма(3.8889; 0.1119; 0.2922)</t>
   </si>
 </sst>
 </file>
@@ -133,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -215,11 +322,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,23 +440,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,80 +842,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
     </row>
     <row r="2" spans="1:23" ht="34.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="29"/>
+      <c r="O2" s="33"/>
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29" t="s">
+      <c r="R2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="29"/>
+      <c r="W2" s="33"/>
     </row>
     <row r="3" spans="1:23" ht="53.25" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -995,80 +1201,80 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="I8" s="28" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="I8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="Q8" s="28" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="Q8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
     </row>
     <row r="9" spans="1:23" ht="60.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29" t="s">
+      <c r="B9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="33"/>
       <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29" t="s">
+      <c r="J9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29" t="s">
+      <c r="M9" s="33"/>
+      <c r="N9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="29"/>
+      <c r="O9" s="33"/>
       <c r="Q9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29" t="s">
+      <c r="R9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29" t="s">
+      <c r="U9" s="33"/>
+      <c r="V9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="29"/>
+      <c r="W9" s="33"/>
     </row>
     <row r="10" spans="1:23" ht="62.25" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -1354,80 +1560,80 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="27.75" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="I15" s="28" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="I15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="Q15" s="28" t="s">
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="Q15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
     </row>
     <row r="16" spans="1:23" ht="50.25" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="B16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="33"/>
       <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29" t="s">
+      <c r="J16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29" t="s">
+      <c r="M16" s="33"/>
+      <c r="N16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="29"/>
+      <c r="O16" s="33"/>
       <c r="Q16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29" t="s">
+      <c r="R16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29" t="s">
+      <c r="U16" s="33"/>
+      <c r="V16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="29"/>
+      <c r="W16" s="33"/>
     </row>
     <row r="17" spans="1:23" ht="54.75" customHeight="1">
       <c r="A17" s="4" t="s">
@@ -1690,33 +1896,33 @@
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="I22" s="27" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="I22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="Q22" s="27" t="s">
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="Q22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
     </row>
     <row r="24" spans="1:23">
       <c r="B24" s="2"/>
@@ -1724,29 +1930,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="R2:S2"/>
@@ -1763,6 +1946,29 @@
     <mergeCell ref="Q22:W22"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1772,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1791,32 +1997,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
     </row>
@@ -1824,41 +2030,41 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="26"/>
       <c r="G2" s="18"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30" t="s">
+      <c r="J2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30" t="s">
+      <c r="R2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="33"/>
+      <c r="T2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="31"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
     </row>
@@ -2072,7 +2278,7 @@
       <c r="S6" s="7">
         <v>0</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="30">
         <v>2E+100</v>
       </c>
       <c r="U6" s="7">
@@ -2106,32 +2312,32 @@
       <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
     </row>
@@ -2139,41 +2345,41 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30" t="s">
+      <c r="K9" s="33"/>
+      <c r="L9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30" t="s">
+      <c r="S9" s="33"/>
+      <c r="T9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="31"/>
+      <c r="U9" s="38"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
     </row>
@@ -2261,7 +2467,7 @@
       <c r="L11" s="9">
         <v>2.6324100000000001</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="31">
         <v>1.91450118347535E-6</v>
       </c>
       <c r="N11" s="15"/>
@@ -2315,7 +2521,7 @@
       <c r="L12" s="9">
         <v>2.0207999999999999</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="31">
         <v>1.14774856577737E-5</v>
       </c>
       <c r="N12" s="15"/>
@@ -2366,7 +2572,7 @@
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="30">
         <v>2E+100</v>
       </c>
       <c r="M13" s="7">
@@ -2384,7 +2590,7 @@
       <c r="S13" s="7">
         <v>0</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13" s="30">
         <v>2E+100</v>
       </c>
       <c r="U13" s="7">
@@ -2418,32 +2624,32 @@
       <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
     </row>
@@ -2451,41 +2657,41 @@
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30" t="s">
+      <c r="K16" s="33"/>
+      <c r="L16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="R16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30" t="s">
+      <c r="S16" s="33"/>
+      <c r="T16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U16" s="31"/>
+      <c r="U16" s="38"/>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
     </row>
@@ -2678,7 +2884,7 @@
       <c r="K20" s="7">
         <v>0</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="30">
         <v>2E+100</v>
       </c>
       <c r="M20" s="7">
@@ -2696,7 +2902,7 @@
       <c r="S20" s="7">
         <v>0</v>
       </c>
-      <c r="T20" s="34">
+      <c r="T20" s="30">
         <v>2E+100</v>
       </c>
       <c r="U20" s="7">
@@ -2713,42 +2919,46 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="25"/>
       <c r="G22" s="24"/>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="27" t="s">
+      <c r="Q22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A15:E15"/>
@@ -2765,15 +2975,11 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2781,12 +2987,1992 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="32.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" ht="45.75" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="I2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="38"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44.399569999999997</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>13.660310000000001</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.88690999999999998</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.41105000000000003</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.1778099999999991</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>46.624940000000002</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1.20516</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.1095</v>
+      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1064.1363699999999</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>99.166049999999998</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9.4460000000000002E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27">
+        <v>32.657620000000001</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1170.4594199999999</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.21557000000000001</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.23924000000000001</v>
+      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="29">
+        <v>5524.6099599999998</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>520.72271000000001</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>2E+100</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="29">
+        <v>172.13226</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29">
+        <v>8861.4918699999998</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0</v>
+      </c>
+      <c r="N6" s="31">
+        <v>2E+100</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="I8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="1:21" ht="51" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="I9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="38"/>
+      <c r="N9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" ht="39" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>47.184869999999997</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>19.181529999999999</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10.370850000000001</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>52.548220000000001</v>
+      </c>
+      <c r="M11" s="47">
+        <v>0</v>
+      </c>
+      <c r="N11" s="29">
+        <v>1.08927</v>
+      </c>
+      <c r="O11" s="29">
+        <v>0.18625</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="27">
+        <v>1219.40299</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>206.23972000000001</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.16392000000000001</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.34981000000000001</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="27">
+        <v>49.010770000000001</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1466.7644499999999</v>
+      </c>
+      <c r="M12" s="47">
+        <v>0</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0.28949000000000003</v>
+      </c>
+      <c r="O12" s="29">
+        <v>0.14474999999999999</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="29">
+        <v>6375.5015800000001</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2E+100</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>1.34978</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0.21679000000000001</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="29">
+        <v>261.59375999999997</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30">
+        <v>2E+100</v>
+      </c>
+      <c r="M13" s="29">
+        <v>0</v>
+      </c>
+      <c r="N13" s="30">
+        <v>2E+100</v>
+      </c>
+      <c r="O13" s="29">
+        <v>0</v>
+      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1">
+      <c r="A15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="I15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" ht="44.25" customHeight="1">
+      <c r="A16" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="I16" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="38"/>
+      <c r="N16" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="45"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" ht="40.5" customHeight="1">
+      <c r="A17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>46.522880000000001</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>28.117349999999998</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.94674000000000003</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0.33151000000000003</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>15.48888</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>54.242229999999999</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1.11381</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="27">
+        <v>1195.61582</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>434.51152000000002</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.16138</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0.35669000000000001</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="27">
+        <v>118.97022</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1577.9248</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.26889999999999997</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.16585</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="29">
+        <v>6418.4476800000002</v>
+      </c>
+      <c r="C20" s="29">
+        <v>0</v>
+      </c>
+      <c r="D20" s="30">
+        <v>2E+100</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>1.63121</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.14802999999999999</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="29">
+        <v>651.20056999999997</v>
+      </c>
+      <c r="K20" s="29">
+        <v>0</v>
+      </c>
+      <c r="L20" s="30">
+        <v>2E+100</v>
+      </c>
+      <c r="M20" s="29">
+        <v>0</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2E+100</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="I22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="54.75" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.73624999999999996</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.65034999999999998</v>
+      </c>
+      <c r="D4" s="9">
+        <v>60.288040000000002</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0.15318000000000001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.38002999999999998</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1908.6359500000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="29">
+        <v>1.4637199999999999</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.18537999999999999</v>
+      </c>
+      <c r="D6" s="30">
+        <v>2E+100</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.90532000000000001</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.38541999999999998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>31.252669999999998</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.16114999999999999</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.35731000000000002</v>
+      </c>
+      <c r="D12" s="9">
+        <v>541.31703000000005</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1.1785000000000001</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.27585999999999999</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2E+100</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="1:5" ht="47.25" customHeight="1">
+      <c r="A16" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.61321000000000003</v>
+      </c>
+      <c r="D18" s="9">
+        <v>11.811299999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="27">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.66903000000000001</v>
+      </c>
+      <c r="D19" s="9">
+        <v>80.964590000000001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0.85565999999999998</v>
+      </c>
+      <c r="C20" s="29">
+        <v>0.44256000000000001</v>
+      </c>
+      <c r="D20" s="30">
+        <v>2E+100</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="57.75" customHeight="1">
+      <c r="A2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1">
+      <c r="A3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="55">
+        <v>6.3200200000000004</v>
+      </c>
+      <c r="C4" s="56">
+        <v>0</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="50">
+        <v>11.671419999999999</v>
+      </c>
+      <c r="C5" s="57">
+        <v>0</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="50">
+        <v>74.073409999999996</v>
+      </c>
+      <c r="C6" s="50">
+        <v>0</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A8" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="57" customHeight="1">
+      <c r="A9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A10" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="55">
+        <v>1.1788700000000001</v>
+      </c>
+      <c r="C11" s="56">
+        <v>0.12411</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A12" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="50">
+        <v>0.33233000000000001</v>
+      </c>
+      <c r="C12" s="57">
+        <v>0.10988000000000001</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="50">
+        <v>2.3174299999999999</v>
+      </c>
+      <c r="C13" s="50">
+        <v>6.1859999999999998E-2</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A15" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A16" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A18" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="55">
+        <v>3.53199</v>
+      </c>
+      <c r="C18" s="56">
+        <v>0</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="50">
+        <v>2.8626200000000002</v>
+      </c>
+      <c r="C19" s="57">
+        <v>0</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A20" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="50">
+        <v>26.05678</v>
+      </c>
+      <c r="C20" s="50">
+        <v>0</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A22" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A23" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="55">
+        <v>3.3507500000000001</v>
+      </c>
+      <c r="C25" s="56">
+        <v>0</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="50">
+        <v>5.6853899999999999</v>
+      </c>
+      <c r="C26" s="57">
+        <v>0</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A27" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="53">
+        <v>2E+100</v>
+      </c>
+      <c r="C27" s="50">
+        <v>0</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A29" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A30" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A32" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="55">
+        <v>0.84889000000000003</v>
+      </c>
+      <c r="C32" s="56">
+        <v>0.46699000000000002</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="50">
+        <v>0.15684999999999999</v>
+      </c>
+      <c r="C33" s="57">
+        <v>0.36935000000000001</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+    </row>
+    <row r="34" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A34" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="50">
+        <v>1.2059899999999999</v>
+      </c>
+      <c r="C34" s="50">
+        <v>0.26526</v>
+      </c>
+      <c r="D34" s="53"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="50"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A36" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="1:7" ht="45" customHeight="1">
+      <c r="A37" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A39" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="55">
+        <v>1.05932</v>
+      </c>
+      <c r="C39" s="56">
+        <v>0.21174999999999999</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="50">
+        <v>0.28709000000000001</v>
+      </c>
+      <c r="C40" s="57">
+        <v>0.14704999999999999</v>
+      </c>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="53">
+        <v>2E+100</v>
+      </c>
+      <c r="C41" s="50">
+        <v>0</v>
+      </c>
+      <c r="D41" s="53"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Лаба 10/Проверка гипотез.xlsx
+++ b/Лаба 10/Проверка гипотез.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="24855" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="9735" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Свобода от распределения" sheetId="1" r:id="rId1"/>
@@ -158,36 +158,12 @@
     <t>Параметр формы = 7</t>
   </si>
   <si>
-    <t>BIII(3.0778; 1.6214; 30.1798; 1.2; 0.013)</t>
-  </si>
-  <si>
-    <t>BIII(4.5039; 2.0396; 37.0448; 8.000; 0.092)</t>
-  </si>
-  <si>
-    <t>BIII(5.2856; 3.0510; 34.1638; 0.7312; 0.0079)</t>
-  </si>
-  <si>
-    <t>BIII(5.2973; 3.3781; 27.5085; 4.8145; 0.073)</t>
-  </si>
-  <si>
-    <t>BIII(6.8750; 4.6392; 18.020; 0.3937; 0.006)</t>
-  </si>
-  <si>
-    <t>BIII(5.08840; 5.2459; 10.6760; 2.4738; 0.068)</t>
-  </si>
-  <si>
-    <t>BIII(9.3597; 5.7532; 5.8275; 1.4507; 0.2500)</t>
-  </si>
-  <si>
     <t>BIII(6.7594; 3.8575; 28.6668; 0.5921; 0.006)</t>
   </si>
   <si>
     <t>BIII(4.3857; 5.7110; 17.3440; 5.0052; 0.075)</t>
   </si>
   <si>
-    <t>BIII(3.5304; 2.1937; 29.8592; 1.000; 0.01)</t>
-  </si>
-  <si>
     <t>BIII(4.1564; 2.7774; 30.5627; 6.0165; 0.0822)</t>
   </si>
   <si>
@@ -203,19 +179,46 @@
     <t>Гамма(4.8498; 0.0661; 0.2787)</t>
   </si>
   <si>
-    <t>BIII(3.3514; 6.3914; 4.4205; 5.6318; 0.3193)</t>
-  </si>
-  <si>
-    <t>BIII(7.4966; 7.2832; 3.2253; 1.3047; 0.2336)</t>
-  </si>
-  <si>
     <t>Гамма(3.8889; 0.1119; 0.2922)</t>
+  </si>
+  <si>
+    <t>BIII(3.6049; 6.4339; 4.3112; 4.6949; 0.3551)</t>
+  </si>
+  <si>
+    <t>BIII(7.4929; 7.2812; 3.2311; 1.2447; 0.2523)</t>
+  </si>
+  <si>
+    <t>BIII(9.8138; 6.5257; 8.165; 2.0959; 0.2500)</t>
+  </si>
+  <si>
+    <t>BIII(1.9555; 3.2472; 38.919; 8.4200; 0.0134)</t>
+  </si>
+  <si>
+    <t>BIII(5.3336; 3.0017; 35.9080; 0.7276; 0.0079)</t>
+  </si>
+  <si>
+    <t>BIII(6.8055,4.4808,18.1075,0.4294,0.0049)</t>
+  </si>
+  <si>
+    <t>BIII(3.2791,2.1490,33.6739,1.2246,0.0100)</t>
+  </si>
+  <si>
+    <t>BIII(2.7043; 4.0572; 35.8110; 38.9955; 0.0920)</t>
+  </si>
+  <si>
+    <t>BIII(5.5922; 3.3549; 28.8971; 4.6207; 0.0730)</t>
+  </si>
+  <si>
+    <t>BIII(4.8864,5.5217,11.1770,2.9686,0.0680)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -361,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,50 +449,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,6 +484,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,80 +854,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="Q1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="34.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="47"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="J2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="33"/>
+      <c r="O2" s="47"/>
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33" t="s">
+      <c r="R2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="33"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="1:23" ht="53.25" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -1201,80 +1213,80 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="I8" s="34" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="Q8" s="34" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="Q8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
     </row>
     <row r="9" spans="1:23" ht="60.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="47"/>
       <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33" t="s">
+      <c r="J9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="33"/>
+      <c r="O9" s="47"/>
       <c r="Q9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33" t="s">
+      <c r="R9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33" t="s">
+      <c r="U9" s="47"/>
+      <c r="V9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="33"/>
+      <c r="W9" s="47"/>
     </row>
     <row r="10" spans="1:23" ht="62.25" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -1560,80 +1572,80 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="27.75" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="I15" s="34" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="I15" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="Q15" s="34" t="s">
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="Q15" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
     </row>
     <row r="16" spans="1:23" ht="50.25" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
+      <c r="B16" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="47"/>
       <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33" t="s">
+      <c r="J16" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33" t="s">
+      <c r="M16" s="47"/>
+      <c r="N16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="47"/>
       <c r="Q16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33" t="s">
+      <c r="R16" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33" t="s">
+      <c r="U16" s="47"/>
+      <c r="V16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="33"/>
+      <c r="W16" s="47"/>
     </row>
     <row r="17" spans="1:23" ht="54.75" customHeight="1">
       <c r="A17" s="4" t="s">
@@ -1896,33 +1908,33 @@
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="I22" s="32" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="I22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="Q22" s="32" t="s">
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="Q22" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
     </row>
     <row r="24" spans="1:23">
       <c r="B24" s="2"/>
@@ -1930,6 +1942,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="R2:S2"/>
@@ -1946,29 +1981,6 @@
     <mergeCell ref="Q22:W22"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1978,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1997,32 +2009,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
     </row>
@@ -2030,41 +2042,41 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="37" t="s">
+      <c r="B2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="26"/>
       <c r="G2" s="18"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="37" t="s">
+      <c r="J2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="38"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="37" t="s">
+      <c r="R2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="49"/>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
     </row>
@@ -2312,32 +2324,32 @@
       <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
     </row>
@@ -2345,41 +2357,41 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="37" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="38"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="33" t="s">
+      <c r="R9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="37" t="s">
+      <c r="S9" s="47"/>
+      <c r="T9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="38"/>
+      <c r="U9" s="49"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
     </row>
@@ -2624,32 +2636,32 @@
       <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="34" t="s">
+      <c r="Q15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
     </row>
@@ -2657,41 +2669,41 @@
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="37" t="s">
+      <c r="K16" s="47"/>
+      <c r="L16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="38"/>
+      <c r="M16" s="49"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="37" t="s">
+      <c r="S16" s="47"/>
+      <c r="T16" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="U16" s="38"/>
+      <c r="U16" s="49"/>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
     </row>
@@ -2919,46 +2931,42 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="25"/>
       <c r="G22" s="24"/>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A15:E15"/>
@@ -2975,11 +2983,15 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3017,24 +3029,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -3043,36 +3055,36 @@
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" ht="45.75" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44" t="s">
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="49"/>
       <c r="I2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="37" t="s">
+      <c r="J2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="37" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -3306,24 +3318,24 @@
       <c r="U7" s="11"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="I8" s="34" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="I8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -3335,33 +3347,33 @@
       <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="49"/>
       <c r="I9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="37" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="37" t="s">
+      <c r="M9" s="49"/>
+      <c r="N9" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="38"/>
+      <c r="O9" s="49"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -3453,7 +3465,7 @@
       <c r="L11" s="9">
         <v>52.548220000000001</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="34">
         <v>0</v>
       </c>
       <c r="N11" s="29">
@@ -3503,7 +3515,7 @@
       <c r="L12" s="9">
         <v>1466.7644499999999</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="34">
         <v>0</v>
       </c>
       <c r="N12" s="29">
@@ -3570,13 +3582,13 @@
       <c r="U13" s="11"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -3592,24 +3604,24 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="I15" s="34" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="I15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -3618,36 +3630,36 @@
       <c r="U15" s="11"/>
     </row>
     <row r="16" spans="1:21" ht="44.25" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="54"/>
+      <c r="F16" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="54"/>
       <c r="I16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="37" t="s">
+      <c r="K16" s="47"/>
+      <c r="L16" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="44" t="s">
+      <c r="M16" s="49"/>
+      <c r="N16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="45"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -3866,24 +3878,24 @@
       <c r="U21" s="11"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="I22" s="35" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="I22" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="39"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -3900,32 +3912,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="I8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="I15:O15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3950,26 +3962,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="54.75" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="45.75" customHeight="1">
       <c r="A3" s="28" t="s">
@@ -4047,26 +4059,26 @@
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" ht="46.5" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" ht="37.5" customHeight="1">
       <c r="A10" s="28" t="s">
@@ -4144,26 +4156,26 @@
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" ht="47.25" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" ht="36.75" customHeight="1">
       <c r="A17" s="28" t="s">
@@ -4234,13 +4246,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4263,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4278,664 +4290,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="38"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="37" t="s">
+      <c r="G2" s="57"/>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1">
+      <c r="A3" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42">
+        <v>2.5093700000000001</v>
+      </c>
+      <c r="C4" s="58">
+        <v>6.7853952085972199E-6</v>
+      </c>
+      <c r="D4" s="44">
+        <v>1.8945799999999999</v>
+      </c>
+      <c r="E4" s="44">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="F4" s="44">
+        <v>1.27688</v>
+      </c>
+      <c r="G4" s="44">
+        <v>7.6700000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37">
+        <v>1.0745400000000001</v>
+      </c>
+      <c r="C5" s="59">
+        <v>1.64742776990933E-3</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.61229</v>
+      </c>
+      <c r="E5" s="44">
+        <v>2.087E-2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.40406999999999998</v>
+      </c>
+      <c r="G5" s="44">
+        <v>7.0480000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="40">
+        <v>2E+100</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40">
+        <v>13.68022</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40">
+        <v>9.3771100000000001</v>
+      </c>
+      <c r="G6" s="40">
+        <v>2.6576387996524101E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" ht="57" customHeight="1">
+      <c r="A9" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="42">
+        <v>1.1788700000000001</v>
+      </c>
+      <c r="C11" s="43">
+        <v>0.12411</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1.7950600000000001</v>
+      </c>
+      <c r="E11" s="44">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="F11" s="44">
+        <v>1.4581200000000001</v>
+      </c>
+      <c r="G11" s="44">
+        <v>2.8459999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A12" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0.33233000000000001</v>
+      </c>
+      <c r="C12" s="44">
+        <v>0.10988000000000001</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.76717999999999997</v>
+      </c>
+      <c r="E12" s="44">
+        <v>8.77E-3</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="G12" s="44">
+        <v>5.7079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="37">
+        <v>2.3174299999999999</v>
+      </c>
+      <c r="C13" s="37">
+        <v>6.1859999999999998E-2</v>
+      </c>
+      <c r="D13" s="40">
+        <v>2E+100</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="40">
+        <v>2.7684099999999998</v>
+      </c>
+      <c r="G13" s="37">
+        <v>3.594E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A16" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A18" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="42">
+        <v>1.60426</v>
+      </c>
+      <c r="C18" s="43">
+        <v>1.163E-2</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1.6794800000000001</v>
+      </c>
+      <c r="E18" s="44">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F18" s="44">
+        <v>1.6209100000000001</v>
+      </c>
+      <c r="G18" s="44">
+        <v>1.0449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="37">
+        <v>0.68488000000000004</v>
+      </c>
+      <c r="C19" s="44">
+        <v>1.3860000000000001E-2</v>
+      </c>
+      <c r="D19" s="44">
+        <v>1.00536</v>
+      </c>
+      <c r="E19" s="44">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0.67308999999999997</v>
+      </c>
+      <c r="G19" s="44">
+        <v>1.481E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A20" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="40">
+        <v>2E+100</v>
+      </c>
+      <c r="C20" s="37">
+        <v>0</v>
+      </c>
+      <c r="D20" s="40">
+        <v>2E+100</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+      <c r="F20" s="40">
+        <v>4.9166999999999996</v>
+      </c>
+      <c r="G20" s="37">
+        <v>3.15E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A22" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="37" t="s">
+      <c r="E23" s="49"/>
+      <c r="F23" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A4" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="55">
-        <v>6.3200200000000004</v>
-      </c>
-      <c r="C4" s="56">
-        <v>0</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-    </row>
-    <row r="5" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="B24" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="42">
+        <v>1.4113800000000001</v>
+      </c>
+      <c r="C25" s="43">
+        <v>3.7220000000000003E-2</v>
+      </c>
+      <c r="D25" s="44">
+        <v>2.2469100000000002</v>
+      </c>
+      <c r="E25" s="60">
+        <v>8.2385334751466894E-5</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50">
-        <v>11.671419999999999</v>
-      </c>
-      <c r="C5" s="57">
-        <v>0</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="B26" s="37">
+        <v>0.41395999999999999</v>
+      </c>
+      <c r="C26" s="44">
+        <v>6.6390000000000005E-2</v>
+      </c>
+      <c r="D26" s="44">
+        <v>1.5903799999999999</v>
+      </c>
+      <c r="E26" s="44">
+        <v>1.1E-4</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="50">
-        <v>74.073409999999996</v>
-      </c>
-      <c r="C6" s="50">
-        <v>0</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="50"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A8" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="B27" s="40">
+        <v>2.9262999999999999</v>
+      </c>
+      <c r="C27" s="37">
+        <v>2.9829999999999999E-2</v>
+      </c>
+      <c r="D27" s="40">
+        <v>11.85322</v>
+      </c>
+      <c r="E27" s="40">
+        <v>1.9926348442389501E-6</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A29" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="37" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="34" t="s">
+      <c r="E29" s="56"/>
+      <c r="F29" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" ht="57" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A30" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B30" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37" t="s">
+      <c r="E30" s="49"/>
+      <c r="F30" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37" t="s">
+      <c r="G30" s="49"/>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A32" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="42">
+        <v>0.84889000000000003</v>
+      </c>
+      <c r="C32" s="43">
+        <v>0.46699000000000002</v>
+      </c>
+      <c r="D32" s="44">
+        <v>1.08074</v>
+      </c>
+      <c r="E32" s="44">
+        <v>0.19325999999999999</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="37">
+        <v>0.15684999999999999</v>
+      </c>
+      <c r="C33" s="44">
+        <v>0.36935000000000001</v>
+      </c>
+      <c r="D33" s="44">
+        <v>0.35542000000000001</v>
+      </c>
+      <c r="E33" s="44">
+        <v>9.5060000000000006E-2</v>
+      </c>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A34" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="37">
+        <v>1.2059899999999999</v>
+      </c>
+      <c r="C34" s="37">
+        <v>0.26526</v>
+      </c>
+      <c r="D34" s="40">
+        <v>2E+100</v>
+      </c>
+      <c r="E34" s="37">
+        <v>0</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="46"/>
+    </row>
+    <row r="37" spans="1:7" ht="45" customHeight="1">
+      <c r="A37" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="49"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="55">
-        <v>1.1788700000000001</v>
-      </c>
-      <c r="C11" s="56">
-        <v>0.12411</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-    </row>
-    <row r="12" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A12" s="50" t="s">
+      <c r="B38" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A39" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="42">
+        <v>1.05932</v>
+      </c>
+      <c r="C39" s="43">
+        <v>0.21174999999999999</v>
+      </c>
+      <c r="D39" s="44">
+        <v>1.9608099999999999</v>
+      </c>
+      <c r="E39" s="44">
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="50">
-        <v>0.33233000000000001</v>
-      </c>
-      <c r="C12" s="57">
-        <v>0.10988000000000001</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="50" t="s">
+      <c r="B40" s="37">
+        <v>0.28709000000000001</v>
+      </c>
+      <c r="C40" s="44">
+        <v>0.14704999999999999</v>
+      </c>
+      <c r="D40" s="44">
+        <v>1.0350900000000001</v>
+      </c>
+      <c r="E40" s="44">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="50">
-        <v>2.3174299999999999</v>
-      </c>
-      <c r="C13" s="50">
-        <v>6.1859999999999998E-2</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-    </row>
-    <row r="15" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A15" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A16" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A18" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="55">
-        <v>3.53199</v>
-      </c>
-      <c r="C18" s="56">
-        <v>0</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-    </row>
-    <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="50">
-        <v>2.8626200000000002</v>
-      </c>
-      <c r="C19" s="57">
-        <v>0</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A20" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="50">
-        <v>26.05678</v>
-      </c>
-      <c r="C20" s="50">
-        <v>0</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A22" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A23" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="55">
-        <v>3.3507500000000001</v>
-      </c>
-      <c r="C25" s="56">
-        <v>0</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-    </row>
-    <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="50">
-        <v>5.6853899999999999</v>
-      </c>
-      <c r="C26" s="57">
-        <v>0</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-    </row>
-    <row r="27" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A27" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="53">
+      <c r="B41" s="40">
         <v>2E+100</v>
       </c>
-      <c r="C27" s="50">
-        <v>0</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="50"/>
-    </row>
-    <row r="28" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A29" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A30" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A32" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="55">
-        <v>0.84889000000000003</v>
-      </c>
-      <c r="C32" s="56">
-        <v>0.46699000000000002</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-    </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="50">
-        <v>0.15684999999999999</v>
-      </c>
-      <c r="C33" s="57">
-        <v>0.36935000000000001</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-    </row>
-    <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="50">
-        <v>1.2059899999999999</v>
-      </c>
-      <c r="C34" s="50">
-        <v>0.26526</v>
-      </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="50"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A36" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="34"/>
-    </row>
-    <row r="37" spans="1:7" ht="45" customHeight="1">
-      <c r="A37" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:7" ht="30">
-      <c r="A38" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A39" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="55">
-        <v>1.05932</v>
-      </c>
-      <c r="C39" s="56">
-        <v>0.21174999999999999</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-    </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="50">
-        <v>0.28709000000000001</v>
-      </c>
-      <c r="C40" s="57">
-        <v>0.14704999999999999</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="53">
+      <c r="C41" s="37">
+        <v>0</v>
+      </c>
+      <c r="D41" s="40">
         <v>2E+100</v>
       </c>
-      <c r="C41" s="50">
-        <v>0</v>
-      </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="50"/>
+      <c r="E41" s="37">
+        <v>0</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:G37"/>
@@ -4945,33 +5092,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лаба 10/Проверка гипотез.xlsx
+++ b/Лаба 10/Проверка гипотез.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="9735" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Свобода от распределения" sheetId="1" r:id="rId1"/>
@@ -161,21 +161,12 @@
     <t>BIII(6.7594; 3.8575; 28.6668; 0.5921; 0.006)</t>
   </si>
   <si>
-    <t>BIII(4.3857; 5.7110; 17.3440; 5.0052; 0.075)</t>
-  </si>
-  <si>
-    <t>BIII(4.1564; 2.7774; 30.5627; 6.0165; 0.0822)</t>
-  </si>
-  <si>
     <t>BIII(3.5462; 6.6218; 2.2864; 2.2850; 0.325)</t>
   </si>
   <si>
     <t>BIII(4.3835; 1.5744; 28.6719; 0.715; 0.009)</t>
   </si>
   <si>
-    <t>BIII(4.5480; 2.1191; 28.5121; 5.000; 0.0785)</t>
-  </si>
-  <si>
     <t>Гамма(4.8498; 0.0661; 0.2787)</t>
   </si>
   <si>
@@ -210,6 +201,15 @@
   </si>
   <si>
     <t>BIII(4.8864,5.5217,11.1770,2.9686,0.0680)</t>
+  </si>
+  <si>
+    <t>BIII(4.9041,4.8135,26.3794,6.0598,0.0693)</t>
+  </si>
+  <si>
+    <t>BIII(4.0720,2.5294,29.1786,5.5356,0.0797)</t>
+  </si>
+  <si>
+    <t>BIII(3.2318,3.8689,75.0000,38.9799,0.0664)</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,13 +487,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -501,38 +519,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -854,80 +857,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="I1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="Q1" s="46" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="Q1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
     </row>
     <row r="2" spans="1:23" ht="34.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="50"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47" t="s">
+      <c r="M2" s="50"/>
+      <c r="N2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="47"/>
+      <c r="O2" s="50"/>
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47" t="s">
+      <c r="R2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47" t="s">
+      <c r="U2" s="50"/>
+      <c r="V2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="47"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="53.25" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -1213,80 +1216,80 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="I8" s="46" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="I8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="Q8" s="46" t="s">
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="Q8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
     </row>
     <row r="9" spans="1:23" ht="60.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47" t="s">
+      <c r="B9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="50"/>
+      <c r="F9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="50"/>
       <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47" t="s">
+      <c r="J9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47" t="s">
+      <c r="M9" s="50"/>
+      <c r="N9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="47"/>
+      <c r="O9" s="50"/>
       <c r="Q9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47" t="s">
+      <c r="R9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47" t="s">
+      <c r="U9" s="50"/>
+      <c r="V9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="47"/>
+      <c r="W9" s="50"/>
     </row>
     <row r="10" spans="1:23" ht="62.25" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -1572,80 +1575,80 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="27.75" customHeight="1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="I15" s="46" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="I15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="Q15" s="46" t="s">
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="Q15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
     </row>
     <row r="16" spans="1:23" ht="50.25" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47" t="s">
+      <c r="B16" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47" t="s">
+      <c r="E16" s="50"/>
+      <c r="F16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="50"/>
       <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47" t="s">
+      <c r="J16" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47" t="s">
+      <c r="M16" s="50"/>
+      <c r="N16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="50"/>
       <c r="Q16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47" t="s">
+      <c r="R16" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47" t="s">
+      <c r="U16" s="50"/>
+      <c r="V16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="47"/>
+      <c r="W16" s="50"/>
     </row>
     <row r="17" spans="1:23" ht="54.75" customHeight="1">
       <c r="A17" s="4" t="s">
@@ -1908,63 +1911,56 @@
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="I22" s="45" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="I22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="Q22" s="45" t="s">
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="Q22" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="R2:S2"/>
@@ -1981,6 +1977,29 @@
     <mergeCell ref="Q22:W22"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2009,32 +2028,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
     </row>
@@ -2042,41 +2061,41 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="26"/>
       <c r="G2" s="18"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48" t="s">
+      <c r="J2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48" t="s">
+      <c r="R2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="50"/>
+      <c r="T2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="49"/>
+      <c r="U2" s="55"/>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
     </row>
@@ -2324,32 +2343,32 @@
       <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
     </row>
@@ -2357,41 +2376,41 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48" t="s">
+      <c r="K9" s="50"/>
+      <c r="L9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="49"/>
+      <c r="M9" s="55"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="47" t="s">
+      <c r="R9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="47"/>
-      <c r="T9" s="48" t="s">
+      <c r="S9" s="50"/>
+      <c r="T9" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="49"/>
+      <c r="U9" s="55"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
     </row>
@@ -2636,32 +2655,32 @@
       <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="46" t="s">
+      <c r="Q15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
     </row>
@@ -2669,41 +2688,41 @@
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48" t="s">
+      <c r="K16" s="50"/>
+      <c r="L16" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="49"/>
+      <c r="M16" s="55"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="47" t="s">
+      <c r="R16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="47"/>
-      <c r="T16" s="48" t="s">
+      <c r="S16" s="50"/>
+      <c r="T16" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="U16" s="49"/>
+      <c r="U16" s="55"/>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
     </row>
@@ -2931,42 +2950,46 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="25"/>
       <c r="G22" s="24"/>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="45" t="s">
+      <c r="Q22" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A15:E15"/>
@@ -2983,15 +3006,11 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3029,24 +3048,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="I1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -3058,33 +3077,33 @@
       <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="53" t="s">
+      <c r="B2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="55"/>
       <c r="I2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48" t="s">
+      <c r="J2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="48" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="49"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -3318,24 +3337,24 @@
       <c r="U7" s="11"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="I8" s="46" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="I8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -3347,33 +3366,33 @@
       <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="48" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="55"/>
       <c r="I9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48" t="s">
+      <c r="K9" s="50"/>
+      <c r="L9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="48" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="49"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -3604,24 +3623,24 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="I15" s="46" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="I15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -3633,33 +3652,33 @@
       <c r="A16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="53" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="53" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="54"/>
+      <c r="G16" s="57"/>
       <c r="I16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48" t="s">
+      <c r="K16" s="50"/>
+      <c r="L16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="53" t="s">
+      <c r="M16" s="55"/>
+      <c r="N16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="54"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -3878,24 +3897,24 @@
       <c r="U21" s="11"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="I22" s="50" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="I22" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -3912,6 +3931,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="A22:G22"/>
@@ -3928,16 +3957,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="I22:O22"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3962,26 +3981,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="54.75" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" ht="45.75" customHeight="1">
       <c r="A3" s="28" t="s">
@@ -4059,26 +4078,26 @@
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" ht="46.5" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" ht="37.5" customHeight="1">
       <c r="A10" s="28" t="s">
@@ -4156,26 +4175,26 @@
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" ht="47.25" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="48" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5" ht="36.75" customHeight="1">
       <c r="A17" s="28" t="s">
@@ -4246,13 +4265,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4275,8 +4294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:G23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4293,35 +4312,35 @@
       <c r="A1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="57"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1">
       <c r="A3" s="37" t="s">
@@ -4353,7 +4372,7 @@
       <c r="B4" s="42">
         <v>2.5093700000000001</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="46">
         <v>6.7853952085972199E-6</v>
       </c>
       <c r="D4" s="44">
@@ -4376,7 +4395,7 @@
       <c r="B5" s="37">
         <v>1.0745400000000001</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="47">
         <v>1.64742776990933E-3</v>
       </c>
       <c r="D5" s="44">
@@ -4428,35 +4447,35 @@
       <c r="A8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="46" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:7" ht="57" customHeight="1">
       <c r="A9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="49"/>
+      <c r="B9" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" ht="39.75" customHeight="1">
       <c r="A10" s="37" t="s">
@@ -4563,35 +4582,35 @@
       <c r="A15" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="48" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="46" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:7" ht="41.25" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="49"/>
+      <c r="B16" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="37" t="s">
@@ -4698,35 +4717,35 @@
       <c r="A22" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="48" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="60"/>
+      <c r="F22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7" ht="44.25" customHeight="1">
       <c r="A23" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="48" t="s">
+      <c r="B23" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="49"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:7" ht="30">
       <c r="A24" s="37" t="s">
@@ -4764,11 +4783,15 @@
       <c r="D25" s="44">
         <v>2.2469100000000002</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="48">
         <v>8.2385334751466894E-5</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="44">
+        <v>1.4081399999999999</v>
+      </c>
+      <c r="G25" s="44">
+        <v>3.7909999999999999E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="37" t="s">
@@ -4786,8 +4809,12 @@
       <c r="E26" s="44">
         <v>1.1E-4</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="F26" s="44">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="G26" s="44">
+        <v>3.3140000000000003E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="26.25" customHeight="1">
       <c r="A27" s="37" t="s">
@@ -4805,8 +4832,12 @@
       <c r="E27" s="40">
         <v>1.9926348442389501E-6</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="37"/>
+      <c r="F27" s="40">
+        <v>3.8015300000000001</v>
+      </c>
+      <c r="G27" s="37">
+        <v>1.09E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="26.25" customHeight="1">
       <c r="A28" s="42"/>
@@ -4821,35 +4852,35 @@
       <c r="A29" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="60"/>
+      <c r="D29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="46" t="s">
+      <c r="E29" s="60"/>
+      <c r="F29" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="46"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="1:7" ht="40.5" customHeight="1">
       <c r="A30" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="49"/>
+      <c r="B30" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="37" t="s">
@@ -4890,8 +4921,12 @@
       <c r="E32" s="44">
         <v>0.19325999999999999</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+      <c r="F32" s="44">
+        <v>0.98907999999999996</v>
+      </c>
+      <c r="G32" s="44">
+        <v>0.28188000000000002</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="A33" s="37" t="s">
@@ -4909,8 +4944,12 @@
       <c r="E33" s="44">
         <v>9.5060000000000006E-2</v>
       </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
+      <c r="F33" s="44">
+        <v>0.21357999999999999</v>
+      </c>
+      <c r="G33" s="44">
+        <v>0.24263999999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
       <c r="A34" s="37" t="s">
@@ -4928,8 +4967,12 @@
       <c r="E34" s="37">
         <v>0</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="37"/>
+      <c r="F34" s="40">
+        <v>1.4884599999999999</v>
+      </c>
+      <c r="G34" s="45">
+        <v>0.17926</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="42"/>
@@ -4944,35 +4987,35 @@
       <c r="A36" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="48" t="s">
+      <c r="C36" s="60"/>
+      <c r="D36" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="46" t="s">
+      <c r="E36" s="60"/>
+      <c r="F36" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="51"/>
     </row>
     <row r="37" spans="1:7" ht="45" customHeight="1">
       <c r="A37" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="49"/>
+      <c r="B37" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="37" t="s">
@@ -5013,8 +5056,12 @@
       <c r="E39" s="44">
         <v>9.2000000000000003E-4</v>
       </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="F39" s="44">
+        <v>3.0579900000000002</v>
+      </c>
+      <c r="G39" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="30">
       <c r="A40" s="37" t="s">
@@ -5032,8 +5079,12 @@
       <c r="E40" s="44">
         <v>2.0400000000000001E-3</v>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
+      <c r="F40" s="44">
+        <v>2.4966699999999999</v>
+      </c>
+      <c r="G40" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="37" t="s">
@@ -5051,23 +5102,30 @@
       <c r="E41" s="37">
         <v>0</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="37"/>
+      <c r="F41" s="40">
+        <v>14.790889999999999</v>
+      </c>
+      <c r="G41" s="37">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B22:C22"/>
@@ -5077,21 +5135,18 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
